--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N2">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O2">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P2">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q2">
-        <v>2.926868941298525</v>
+        <v>6.073739454236444</v>
       </c>
       <c r="R2">
-        <v>2.926868941298525</v>
+        <v>54.66365508812799</v>
       </c>
       <c r="S2">
-        <v>0.000612524809124652</v>
+        <v>0.0007861576333180476</v>
       </c>
       <c r="T2">
-        <v>0.000612524809124652</v>
+        <v>0.0007861576333180475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N3">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O3">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P3">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q3">
-        <v>4.880082804940734</v>
+        <v>8.906603843120889</v>
       </c>
       <c r="R3">
-        <v>4.880082804940734</v>
+        <v>80.15943458808799</v>
       </c>
       <c r="S3">
-        <v>0.001021286517626804</v>
+        <v>0.001152830912647305</v>
       </c>
       <c r="T3">
-        <v>0.001021286517626804</v>
+        <v>0.001152830912647305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N4">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O4">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P4">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q4">
-        <v>4.169779645682663</v>
+        <v>9.689058041717333</v>
       </c>
       <c r="R4">
-        <v>4.169779645682663</v>
+        <v>87.20152237545599</v>
       </c>
       <c r="S4">
-        <v>0.0008726367776585484</v>
+        <v>0.001254108279841463</v>
       </c>
       <c r="T4">
-        <v>0.0008726367776585484</v>
+        <v>0.001254108279841463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N5">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O5">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P5">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q5">
-        <v>7.331198513633105</v>
+        <v>18.60527231568489</v>
       </c>
       <c r="R5">
-        <v>7.331198513633105</v>
+        <v>167.447450841164</v>
       </c>
       <c r="S5">
-        <v>0.00153424736818786</v>
+        <v>0.002408183123616619</v>
       </c>
       <c r="T5">
-        <v>0.00153424736818786</v>
+        <v>0.002408183123616619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N6">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O6">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P6">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q6">
-        <v>8.734323457120388</v>
+        <v>16.23801513727689</v>
       </c>
       <c r="R6">
-        <v>8.734323457120388</v>
+        <v>146.142136235492</v>
       </c>
       <c r="S6">
-        <v>0.001827888407614206</v>
+        <v>0.002101775956359171</v>
       </c>
       <c r="T6">
-        <v>0.001827888407614206</v>
+        <v>0.00210177595635917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N7">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O7">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P7">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q7">
-        <v>50.49294535567172</v>
+        <v>129.6858817541569</v>
       </c>
       <c r="R7">
-        <v>50.49294535567172</v>
+        <v>1167.172935787412</v>
       </c>
       <c r="S7">
-        <v>0.01056698551811576</v>
+        <v>0.01678595972757761</v>
       </c>
       <c r="T7">
-        <v>0.01056698551811576</v>
+        <v>0.01678595972757761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N8">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O8">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P8">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q8">
-        <v>134.7345536751587</v>
+        <v>162.5460040360391</v>
       </c>
       <c r="R8">
-        <v>134.7345536751587</v>
+        <v>1462.914036324352</v>
       </c>
       <c r="S8">
-        <v>0.0281967721915685</v>
+        <v>0.02103922678954343</v>
       </c>
       <c r="T8">
-        <v>0.0281967721915685</v>
+        <v>0.02103922678954343</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N9">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O9">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P9">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q9">
-        <v>224.6481792689341</v>
+        <v>238.3593954168602</v>
       </c>
       <c r="R9">
-        <v>224.6481792689341</v>
+        <v>2145.234558751742</v>
       </c>
       <c r="S9">
-        <v>0.04701357863528259</v>
+        <v>0.03085217263465853</v>
       </c>
       <c r="T9">
-        <v>0.04701357863528259</v>
+        <v>0.03085217263465853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N10">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O10">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P10">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q10">
-        <v>191.9503096150123</v>
+        <v>259.2995105273893</v>
       </c>
       <c r="R10">
-        <v>191.9503096150123</v>
+        <v>2333.695594746504</v>
       </c>
       <c r="S10">
-        <v>0.04017068379774826</v>
+        <v>0.03356256735289404</v>
       </c>
       <c r="T10">
-        <v>0.04017068379774826</v>
+        <v>0.03356256735289404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N11">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O11">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P11">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q11">
-        <v>337.4820599927903</v>
+        <v>497.9161012261612</v>
       </c>
       <c r="R11">
-        <v>337.4820599927903</v>
+        <v>4481.244911035451</v>
       </c>
       <c r="S11">
-        <v>0.0706270552341053</v>
+        <v>0.06444803019297737</v>
       </c>
       <c r="T11">
-        <v>0.0706270552341053</v>
+        <v>0.06444803019297737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N12">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O12">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P12">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q12">
-        <v>402.0730672441666</v>
+        <v>434.5633351460392</v>
       </c>
       <c r="R12">
-        <v>402.0730672441666</v>
+        <v>3911.070016314352</v>
       </c>
       <c r="S12">
-        <v>0.08414443342264342</v>
+        <v>0.05624793188106159</v>
       </c>
       <c r="T12">
-        <v>0.08414443342264342</v>
+        <v>0.05624793188106159</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N13">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O13">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P13">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q13">
-        <v>2324.376182427337</v>
+        <v>3470.666138687459</v>
       </c>
       <c r="R13">
-        <v>2324.376182427337</v>
+        <v>31235.99524818713</v>
       </c>
       <c r="S13">
-        <v>0.4864372495078448</v>
+        <v>0.4492274813870214</v>
       </c>
       <c r="T13">
-        <v>0.4864372495078448</v>
+        <v>0.4492274813870214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N14">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O14">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P14">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q14">
-        <v>9.064156795554888</v>
+        <v>34.99053665985421</v>
       </c>
       <c r="R14">
-        <v>9.064156795554888</v>
+        <v>314.9148299386879</v>
       </c>
       <c r="S14">
-        <v>0.001896914765377224</v>
+        <v>0.004529018357850769</v>
       </c>
       <c r="T14">
-        <v>0.001896914765377224</v>
+        <v>0.004529018357850769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N15">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O15">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P15">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q15">
-        <v>15.11302234791883</v>
+        <v>51.31053951781643</v>
       </c>
       <c r="R15">
-        <v>15.11302234791883</v>
+        <v>461.7948556603479</v>
       </c>
       <c r="S15">
-        <v>0.003162800014150482</v>
+        <v>0.006641406437588093</v>
       </c>
       <c r="T15">
-        <v>0.003162800014150482</v>
+        <v>0.006641406437588093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N16">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O16">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P16">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q16">
-        <v>12.9132999356687</v>
+        <v>55.81822255673065</v>
       </c>
       <c r="R16">
-        <v>12.9132999356687</v>
+        <v>502.3640030105759</v>
       </c>
       <c r="S16">
-        <v>0.00270244986601814</v>
+        <v>0.007224860742192638</v>
       </c>
       <c r="T16">
-        <v>0.00270244986601814</v>
+        <v>0.007224860742192638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N17">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O17">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P17">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q17">
-        <v>22.70382930006696</v>
+        <v>107.1841273294104</v>
       </c>
       <c r="R17">
-        <v>22.70382930006696</v>
+        <v>964.6571459646938</v>
       </c>
       <c r="S17">
-        <v>0.004751377320725681</v>
+        <v>0.01387343341041334</v>
       </c>
       <c r="T17">
-        <v>0.004751377320725681</v>
+        <v>0.01387343341041334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N18">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O18">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P18">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q18">
-        <v>27.04913643427718</v>
+        <v>93.54646642734241</v>
       </c>
       <c r="R18">
-        <v>27.04913643427718</v>
+        <v>841.9181978460817</v>
       </c>
       <c r="S18">
-        <v>0.005660747872107209</v>
+        <v>0.01210823566040355</v>
       </c>
       <c r="T18">
-        <v>0.005660747872107209</v>
+        <v>0.01210823566040355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N19">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O19">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P19">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q19">
-        <v>156.370504779125</v>
+        <v>747.1144644868223</v>
       </c>
       <c r="R19">
-        <v>156.370504779125</v>
+        <v>6724.030180381401</v>
       </c>
       <c r="S19">
-        <v>0.03272466772976355</v>
+        <v>0.09670315028231301</v>
       </c>
       <c r="T19">
-        <v>0.03272466772976355</v>
+        <v>0.09670315028231301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N20">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O20">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P20">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q20">
-        <v>10.91604750708793</v>
+        <v>12.97489016331378</v>
       </c>
       <c r="R20">
-        <v>10.91604750708793</v>
+        <v>116.774011469824</v>
       </c>
       <c r="S20">
-        <v>0.00228447192196731</v>
+        <v>0.001679411673847425</v>
       </c>
       <c r="T20">
-        <v>0.00228447192196731</v>
+        <v>0.001679411673847425</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N21">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O21">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P21">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q21">
-        <v>18.20075200006115</v>
+        <v>19.02653340061155</v>
       </c>
       <c r="R21">
-        <v>18.20075200006115</v>
+        <v>171.238800605504</v>
       </c>
       <c r="S21">
-        <v>0.003808989185493395</v>
+        <v>0.00246270927180428</v>
       </c>
       <c r="T21">
-        <v>0.003808989185493395</v>
+        <v>0.00246270927180428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N22">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O22">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P22">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q22">
-        <v>15.551606040196</v>
+        <v>20.69803369480533</v>
       </c>
       <c r="R22">
-        <v>15.551606040196</v>
+        <v>186.282303253248</v>
       </c>
       <c r="S22">
-        <v>0.003254585262409011</v>
+        <v>0.002679060783961629</v>
       </c>
       <c r="T22">
-        <v>0.003254585262409011</v>
+        <v>0.002679060783961629</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N23">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O23">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P23">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q23">
-        <v>27.34243072161836</v>
+        <v>39.74509716352355</v>
       </c>
       <c r="R23">
-        <v>27.34243072161836</v>
+        <v>357.705874471712</v>
       </c>
       <c r="S23">
-        <v>0.005722127466128697</v>
+        <v>0.005144427375836386</v>
       </c>
       <c r="T23">
-        <v>0.005722127466128697</v>
+        <v>0.005144427375836386</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N24">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O24">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P24">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q24">
-        <v>32.57552412234028</v>
+        <v>34.68809692345955</v>
       </c>
       <c r="R24">
-        <v>32.57552412234028</v>
+        <v>312.1928723111359</v>
       </c>
       <c r="S24">
-        <v>0.006817290796191085</v>
+        <v>0.004489871912867931</v>
       </c>
       <c r="T24">
-        <v>0.006817290796191085</v>
+        <v>0.004489871912867931</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N25">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O25">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P25">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q25">
-        <v>188.318439031565</v>
+        <v>277.0385664664996</v>
       </c>
       <c r="R25">
-        <v>188.318439031565</v>
+        <v>2493.347098198496</v>
       </c>
       <c r="S25">
-        <v>0.03941061873145782</v>
+        <v>0.03585863130813337</v>
       </c>
       <c r="T25">
-        <v>0.03941061873145782</v>
+        <v>0.03585863130813337</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N26">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O26">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P26">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q26">
-        <v>10.11720773262841</v>
+        <v>14.16742190262044</v>
       </c>
       <c r="R26">
-        <v>10.11720773262841</v>
+        <v>127.506797123584</v>
       </c>
       <c r="S26">
-        <v>0.002117293551433605</v>
+        <v>0.001833767641352101</v>
       </c>
       <c r="T26">
-        <v>0.002117293551433605</v>
+        <v>0.001833767641352101</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N27">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O27">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P27">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q27">
-        <v>16.86881526991391</v>
+        <v>20.77527614013489</v>
       </c>
       <c r="R27">
-        <v>16.86881526991391</v>
+        <v>186.977485261214</v>
       </c>
       <c r="S27">
-        <v>0.003530246164277831</v>
+        <v>0.002689058700149757</v>
       </c>
       <c r="T27">
-        <v>0.003530246164277831</v>
+        <v>0.002689058700149757</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N28">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O28">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P28">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q28">
-        <v>14.41353464085783</v>
+        <v>22.60040526108533</v>
       </c>
       <c r="R28">
-        <v>14.41353464085783</v>
+        <v>203.403647349768</v>
       </c>
       <c r="S28">
-        <v>0.003016413693872509</v>
+        <v>0.002925295239605766</v>
       </c>
       <c r="T28">
-        <v>0.003016413693872509</v>
+        <v>0.002925295239605766</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N29">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O29">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P29">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q29">
-        <v>25.34150308030402</v>
+        <v>43.39809840305189</v>
       </c>
       <c r="R29">
-        <v>25.34150308030402</v>
+        <v>390.582885627467</v>
       </c>
       <c r="S29">
-        <v>0.005303380386519264</v>
+        <v>0.005617255496076608</v>
       </c>
       <c r="T29">
-        <v>0.005303380386519264</v>
+        <v>0.005617255496076608</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N30">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O30">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P30">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q30">
-        <v>30.19163706744295</v>
+        <v>37.87630553537788</v>
       </c>
       <c r="R30">
-        <v>30.19163706744295</v>
+        <v>340.886749818401</v>
       </c>
       <c r="S30">
-        <v>0.006318399321184387</v>
+        <v>0.004902539356994414</v>
       </c>
       <c r="T30">
-        <v>0.006318399321184387</v>
+        <v>0.004902539356994414</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N31">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O31">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P31">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q31">
-        <v>174.5372366994146</v>
+        <v>302.5013857555179</v>
       </c>
       <c r="R31">
-        <v>174.5372366994146</v>
+        <v>2722.512471799661</v>
       </c>
       <c r="S31">
-        <v>0.03652653731294934</v>
+        <v>0.03915442460000686</v>
       </c>
       <c r="T31">
-        <v>0.03652653731294934</v>
+        <v>0.03915442460000686</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N32">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O32">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P32">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q32">
-        <v>10.32254910588616</v>
+        <v>17.266337787904</v>
       </c>
       <c r="R32">
-        <v>10.32254910588616</v>
+        <v>155.397040091136</v>
       </c>
       <c r="S32">
-        <v>0.00216026666980094</v>
+        <v>0.002234877434846278</v>
       </c>
       <c r="T32">
-        <v>0.00216026666980094</v>
+        <v>0.002234877434846279</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N33">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O33">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P33">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q33">
-        <v>17.21118895485708</v>
+        <v>25.319563286684</v>
       </c>
       <c r="R33">
-        <v>17.21118895485708</v>
+        <v>227.876069580156</v>
       </c>
       <c r="S33">
-        <v>0.003601896921529052</v>
+        <v>0.003277250876512677</v>
       </c>
       <c r="T33">
-        <v>0.003601896921529052</v>
+        <v>0.003277250876512678</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N34">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O34">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P34">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q34">
-        <v>14.70607533734929</v>
+        <v>27.543912651408</v>
       </c>
       <c r="R34">
-        <v>14.70607533734929</v>
+        <v>247.895213862672</v>
       </c>
       <c r="S34">
-        <v>0.003077635579058843</v>
+        <v>0.003565160696388834</v>
       </c>
       <c r="T34">
-        <v>0.003077635579058843</v>
+        <v>0.003565160696388835</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N35">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O35">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P35">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q35">
-        <v>25.85584055171356</v>
+        <v>52.890796330502</v>
       </c>
       <c r="R35">
-        <v>25.85584055171356</v>
+        <v>476.017166974518</v>
       </c>
       <c r="S35">
-        <v>0.005411019118495086</v>
+        <v>0.006845947802138902</v>
       </c>
       <c r="T35">
-        <v>0.005411019118495086</v>
+        <v>0.006845947802138904</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N36">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O36">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P36">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q36">
-        <v>30.80441406878241</v>
+        <v>46.161192207506</v>
       </c>
       <c r="R36">
-        <v>30.80441406878241</v>
+        <v>415.4507298675539</v>
       </c>
       <c r="S36">
-        <v>0.00644663913079298</v>
+        <v>0.005974897983429317</v>
       </c>
       <c r="T36">
-        <v>0.00644663913079298</v>
+        <v>0.005974897983429318</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N37">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O37">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P37">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q37">
-        <v>178.079688017567</v>
+        <v>368.669130041066</v>
       </c>
       <c r="R37">
-        <v>178.079688017567</v>
+        <v>3318.022170369594</v>
       </c>
       <c r="S37">
-        <v>0.03726788903077584</v>
+        <v>0.0477188810837695</v>
       </c>
       <c r="T37">
-        <v>0.03726788903077584</v>
+        <v>0.04771888108376951</v>
       </c>
     </row>
   </sheetData>
